--- a/data/trans_orig/IP07A11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A11-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19397625-6CFD-402D-84AB-5E86D7917586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16AE4706-CC85-4D69-8A69-DB64C935001D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{87E512B5-093B-41EA-9822-BF8D6B3891B1}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C8A66088-456D-4E75-9EE0-C3D5F5DA13A5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,171 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
     <t>12,84%</t>
   </si>
   <si>
@@ -118,33 +262,6 @@
     <t>16,79%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
     <t>48,76%</t>
   </si>
   <si>
@@ -172,27 +289,6 @@
     <t>52,14%</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
     <t>37,02%</t>
   </si>
   <si>
@@ -220,100 +316,43 @@
     <t>39,03%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
   </si>
   <si>
     <t>12,63%</t>
@@ -343,33 +382,6 @@
     <t>16,73%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
     <t>46,24%</t>
   </si>
   <si>
@@ -394,18 +406,6 @@
     <t>50,79%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
     <t>40,01%</t>
   </si>
   <si>
@@ -436,6 +436,147 @@
     <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 44,88%)</t>
   </si>
   <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
     <t>7,01%</t>
   </si>
   <si>
@@ -463,27 +604,6 @@
     <t>10,03%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
     <t>36,1%</t>
   </si>
   <si>
@@ -511,21 +631,6 @@
     <t>39,43%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
     <t>54,96%</t>
   </si>
   <si>
@@ -553,109 +658,34 @@
     <t>58,57%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
   </si>
   <si>
     <t>6,69%</t>
@@ -682,27 +712,6 @@
     <t>9,07%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
     <t>37,21%</t>
   </si>
   <si>
@@ -730,15 +739,6 @@
     <t>40,61%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
     <t>54,36%</t>
   </si>
   <si>
@@ -769,6 +769,156 @@
     <t>Menores según frecuencia de haber podido estar al aire libre en 2015 (Tasa respuesta: 47,27%)</t>
   </si>
   <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
     <t>8,86%</t>
   </si>
   <si>
@@ -793,30 +943,6 @@
     <t>9,39%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
     <t>38,7%</t>
   </si>
   <si>
@@ -841,12 +967,6 @@
     <t>41,03%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
     <t>50,95%</t>
   </si>
   <si>
@@ -874,124 +994,46 @@
     <t>53,41%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
   </si>
   <si>
     <t>8,51%</t>
@@ -1015,27 +1057,6 @@
     <t>12,62%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
     <t>37,99%</t>
   </si>
   <si>
@@ -1061,27 +1082,6 @@
   </si>
   <si>
     <t>39,81%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
   </si>
   <si>
     <t>52,0%</t>
@@ -1497,7 +1497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC55D24-0AAE-442D-A001-A1177623DB7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7855EB26-43E1-445D-8F26-E51860CD7D50}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1887,10 +1887,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>35882</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1902,34 +1902,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>41081</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="7">
-        <v>115</v>
-      </c>
-      <c r="N10" s="7">
-        <v>76963</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1938,49 +1938,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>3186</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>4221</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M11" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>7407</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,49 +1989,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="D12" s="7">
-        <v>136296</v>
+        <v>7776</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H12" s="7">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c r="I12" s="7">
-        <v>129242</v>
+        <v>9951</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M12" s="7">
-        <v>394</v>
+        <v>27</v>
       </c>
       <c r="N12" s="7">
-        <v>265538</v>
+        <v>17727</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,49 +2040,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7">
-        <v>680</v>
+        <v>23500</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I13" s="7">
-        <v>462</v>
+        <v>26697</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="N13" s="7">
-        <v>1142</v>
+        <v>50197</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,49 +2091,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="D14" s="7">
-        <v>103477</v>
+        <v>34791</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H14" s="7">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="I14" s="7">
-        <v>89943</v>
+        <v>19394</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M14" s="7">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="N14" s="7">
-        <v>193421</v>
+        <v>54184</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,102 +2142,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>419</v>
+        <v>100</v>
       </c>
       <c r="D15" s="7">
-        <v>279521</v>
+        <v>66066</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H15" s="7">
-        <v>393</v>
+        <v>83</v>
       </c>
       <c r="I15" s="7">
-        <v>264949</v>
+        <v>56042</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="M15" s="7">
-        <v>812</v>
+        <v>183</v>
       </c>
       <c r="N15" s="7">
-        <v>544471</v>
+        <v>122107</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>7776</v>
+        <v>680</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H16" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>9951</v>
+        <v>462</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="M16" s="7">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>17727</v>
+        <v>1142</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,49 +2246,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>3186</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>4221</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>7407</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,49 +2297,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D18" s="7">
-        <v>23500</v>
+        <v>35882</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H18" s="7">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I18" s="7">
-        <v>26697</v>
+        <v>41081</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M18" s="7">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="N18" s="7">
-        <v>50197</v>
+        <v>76963</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,49 +2348,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>136296</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>129242</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>265538</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,10 +2399,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="D20" s="7">
-        <v>34791</v>
+        <v>103477</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>83</v>
@@ -2414,10 +2414,10 @@
         <v>85</v>
       </c>
       <c r="H20" s="7">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="I20" s="7">
-        <v>19394</v>
+        <v>89943</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>86</v>
@@ -2429,10 +2429,10 @@
         <v>88</v>
       </c>
       <c r="M20" s="7">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="N20" s="7">
-        <v>54184</v>
+        <v>193421</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>89</v>
@@ -2450,49 +2450,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>100</v>
+        <v>419</v>
       </c>
       <c r="D21" s="7">
-        <v>66066</v>
+        <v>279521</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H21" s="7">
-        <v>83</v>
+        <v>393</v>
       </c>
       <c r="I21" s="7">
-        <v>56042</v>
+        <v>264949</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="M21" s="7">
-        <v>183</v>
+        <v>812</v>
       </c>
       <c r="N21" s="7">
-        <v>122107</v>
+        <v>544471</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,49 +2503,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>43658</v>
+        <v>680</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>92</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>462</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H22" s="7">
-        <v>76</v>
-      </c>
-      <c r="I22" s="7">
-        <v>51032</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M22" s="7">
+        <v>2</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1142</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M22" s="7">
-        <v>142</v>
-      </c>
-      <c r="N22" s="7">
-        <v>94690</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,13 +2560,13 @@
         <v>3186</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -2575,13 +2575,13 @@
         <v>4221</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -2590,13 +2590,13 @@
         <v>7407</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,49 +2605,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>239</v>
+        <v>66</v>
       </c>
       <c r="D24" s="7">
-        <v>159796</v>
+        <v>43658</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="7">
+        <v>76</v>
+      </c>
+      <c r="I24" s="7">
+        <v>51032</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>142</v>
+      </c>
+      <c r="N24" s="7">
+        <v>94690</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H24" s="7">
-        <v>229</v>
-      </c>
-      <c r="I24" s="7">
-        <v>155939</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M24" s="7">
-        <v>468</v>
-      </c>
-      <c r="N24" s="7">
-        <v>315735</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,46 +2656,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="D25" s="7">
-        <v>680</v>
+        <v>159796</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" s="7">
+        <v>229</v>
+      </c>
+      <c r="I25" s="7">
+        <v>155939</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>462</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>468</v>
+      </c>
+      <c r="N25" s="7">
+        <v>315735</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M25" s="7">
-        <v>2</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1142</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="P25" s="7" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>121</v>
@@ -2764,13 +2764,13 @@
         <v>345587</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H27" s="7">
         <v>476</v>
@@ -2779,13 +2779,13 @@
         <v>320991</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="M27" s="7">
         <v>995</v>
@@ -2794,13 +2794,13 @@
         <v>666578</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2819,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255A9A68-0334-48BD-978D-CFD052087E1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F90D3C-9931-4AAA-BB48-CEDE06A67F85}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3209,49 +3209,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>18676</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="H10" s="7">
-        <v>30</v>
-      </c>
-      <c r="I10" s="7">
-        <v>21577</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M10" s="7">
-        <v>58</v>
-      </c>
-      <c r="N10" s="7">
-        <v>40253</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,49 +3260,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>3826</v>
+        <v>679</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>627</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" s="7">
         <v>2</v>
       </c>
-      <c r="I11" s="7">
-        <v>1464</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M11" s="7">
-        <v>8</v>
-      </c>
       <c r="N11" s="7">
-        <v>5289</v>
+        <v>1306</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,49 +3311,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
+        <v>5</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3557</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="7">
-        <v>96157</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7">
+        <v>3559</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M12" s="7">
+        <v>10</v>
+      </c>
+      <c r="N12" s="7">
+        <v>7116</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H12" s="7">
-        <v>130</v>
-      </c>
-      <c r="I12" s="7">
-        <v>90437</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M12" s="7">
-        <v>273</v>
-      </c>
-      <c r="N12" s="7">
-        <v>186593</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,49 +3362,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7">
-        <v>1294</v>
+        <v>27575</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" s="7">
+        <v>45</v>
+      </c>
+      <c r="I13" s="7">
+        <v>32211</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M13" s="7">
+        <v>83</v>
+      </c>
+      <c r="N13" s="7">
+        <v>59786</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1294</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,49 +3413,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>213</v>
+        <v>48</v>
       </c>
       <c r="D14" s="7">
-        <v>146381</v>
+        <v>34362</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H14" s="7">
+        <v>50</v>
+      </c>
+      <c r="I14" s="7">
+        <v>35573</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>98</v>
+      </c>
+      <c r="N14" s="7">
+        <v>69935</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="7">
-        <v>195</v>
-      </c>
-      <c r="I14" s="7">
-        <v>137199</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M14" s="7">
-        <v>408</v>
-      </c>
-      <c r="N14" s="7">
-        <v>283580</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,102 +3464,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>392</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>266334</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H15" s="7">
-        <v>357</v>
+        <v>101</v>
       </c>
       <c r="I15" s="7">
-        <v>250676</v>
+        <v>71969</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="M15" s="7">
-        <v>749</v>
+        <v>193</v>
       </c>
       <c r="N15" s="7">
-        <v>517010</v>
+        <v>138143</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>3557</v>
+        <v>1294</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M16" s="7">
+        <v>2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1294</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3559</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="M16" s="7">
-        <v>10</v>
-      </c>
-      <c r="N16" s="7">
-        <v>7116</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,49 +3568,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>679</v>
+        <v>3826</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>627</v>
+        <v>1464</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N17" s="7">
-        <v>1306</v>
+        <v>5289</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>184</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,49 +3619,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D18" s="7">
-        <v>27575</v>
+        <v>18676</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H18" s="7">
+        <v>30</v>
+      </c>
+      <c r="I18" s="7">
+        <v>21577</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M18" s="7">
+        <v>58</v>
+      </c>
+      <c r="N18" s="7">
+        <v>40253</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="H18" s="7">
-        <v>45</v>
-      </c>
-      <c r="I18" s="7">
-        <v>32211</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M18" s="7">
-        <v>83</v>
-      </c>
-      <c r="N18" s="7">
-        <v>59786</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,46 +3670,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>96157</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>189</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H19" s="7">
+        <v>130</v>
+      </c>
+      <c r="I19" s="7">
+        <v>90437</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M19" s="7">
+        <v>273</v>
+      </c>
+      <c r="N19" s="7">
+        <v>186593</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>196</v>
@@ -3721,10 +3721,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>48</v>
+        <v>213</v>
       </c>
       <c r="D20" s="7">
-        <v>34362</v>
+        <v>146381</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>197</v>
@@ -3736,10 +3736,10 @@
         <v>199</v>
       </c>
       <c r="H20" s="7">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="I20" s="7">
-        <v>35573</v>
+        <v>137199</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>200</v>
@@ -3751,10 +3751,10 @@
         <v>202</v>
       </c>
       <c r="M20" s="7">
-        <v>98</v>
+        <v>408</v>
       </c>
       <c r="N20" s="7">
-        <v>69935</v>
+        <v>283580</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>203</v>
@@ -3772,49 +3772,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>392</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>266334</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H21" s="7">
-        <v>101</v>
+        <v>357</v>
       </c>
       <c r="I21" s="7">
-        <v>71969</v>
+        <v>250676</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="M21" s="7">
-        <v>193</v>
+        <v>749</v>
       </c>
       <c r="N21" s="7">
-        <v>138143</v>
+        <v>517010</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,49 +3825,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>22234</v>
+        <v>1294</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>206</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M22" s="7">
+        <v>2</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1294</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="H22" s="7">
-        <v>35</v>
-      </c>
-      <c r="I22" s="7">
-        <v>25136</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M22" s="7">
-        <v>68</v>
-      </c>
-      <c r="N22" s="7">
-        <v>47369</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,13 +3882,13 @@
         <v>4504</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -3897,13 +3897,13 @@
         <v>2090</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -3912,13 +3912,13 @@
         <v>6595</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,49 +3927,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>181</v>
+        <v>33</v>
       </c>
       <c r="D24" s="7">
-        <v>123732</v>
+        <v>22234</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H24" s="7">
+        <v>35</v>
+      </c>
+      <c r="I24" s="7">
+        <v>25136</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M24" s="7">
+        <v>68</v>
+      </c>
+      <c r="N24" s="7">
+        <v>47369</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="H24" s="7">
-        <v>175</v>
-      </c>
-      <c r="I24" s="7">
-        <v>122647</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M24" s="7">
-        <v>356</v>
-      </c>
-      <c r="N24" s="7">
-        <v>246379</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,46 +3978,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="D25" s="7">
-        <v>1294</v>
+        <v>123732</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H25" s="7">
+        <v>175</v>
+      </c>
+      <c r="I25" s="7">
+        <v>122647</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M25" s="7">
+        <v>356</v>
+      </c>
+      <c r="N25" s="7">
+        <v>246379</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M25" s="7">
-        <v>2</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1294</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>232</v>
@@ -4086,13 +4086,13 @@
         <v>332508</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H27" s="7">
         <v>458</v>
@@ -4101,13 +4101,13 @@
         <v>322645</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="M27" s="7">
         <v>942</v>
@@ -4116,13 +4116,13 @@
         <v>655153</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4141,7 +4141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D343305-2115-43D9-BCE4-2B5FFE720782}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0CC4E6-9DC2-4E01-84E6-A616816E0C0F}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4531,49 +4531,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>24942</v>
+        <v>549</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>243</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1067</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H10" s="7">
-        <v>53</v>
-      </c>
-      <c r="I10" s="7">
-        <v>37685</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1616</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="M10" s="7">
-        <v>88</v>
-      </c>
-      <c r="N10" s="7">
-        <v>62627</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,49 +4582,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>644</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H11" s="7">
+        <v>4</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2745</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M11" s="7">
         <v>5</v>
       </c>
-      <c r="D11" s="7">
-        <v>3523</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="N11" s="7">
+        <v>3389</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="H11" s="7">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3790</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="M11" s="7">
-        <v>10</v>
-      </c>
-      <c r="N11" s="7">
-        <v>7313</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,49 +4633,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>108987</v>
+        <v>5817</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H12" s="7">
+        <v>12</v>
+      </c>
+      <c r="I12" s="7">
+        <v>8033</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H12" s="7">
-        <v>132</v>
-      </c>
-      <c r="I12" s="7">
-        <v>95583</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>20</v>
+      </c>
+      <c r="N12" s="7">
+        <v>13850</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="M12" s="7">
-        <v>278</v>
-      </c>
-      <c r="N12" s="7">
-        <v>204569</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,49 +4684,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>690</v>
+        <v>28296</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>107</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="I13" s="7">
-        <v>617</v>
+        <v>31858</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="N13" s="7">
-        <v>1307</v>
+        <v>60154</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>44</v>
+        <v>271</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,49 +4735,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="D14" s="7">
-        <v>143487</v>
+        <v>44426</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="I14" s="7">
-        <v>126966</v>
+        <v>47809</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
-        <v>374</v>
+        <v>135</v>
       </c>
       <c r="N14" s="7">
-        <v>270453</v>
+        <v>92236</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,102 +4786,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>381</v>
+        <v>115</v>
       </c>
       <c r="D15" s="7">
-        <v>281629</v>
+        <v>79732</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H15" s="7">
-        <v>371</v>
+        <v>138</v>
       </c>
       <c r="I15" s="7">
-        <v>264642</v>
+        <v>91513</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="M15" s="7">
-        <v>752</v>
+        <v>253</v>
       </c>
       <c r="N15" s="7">
-        <v>546270</v>
+        <v>171245</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>5817</v>
+        <v>690</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>278</v>
+        <v>170</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>280</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>8033</v>
+        <v>617</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>282</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>209</v>
       </c>
       <c r="M16" s="7">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>13850</v>
+        <v>1307</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,49 +4890,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>644</v>
+        <v>3523</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3790</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="H17" s="7">
-        <v>4</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2745</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>290</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N17" s="7">
-        <v>3389</v>
+        <v>7313</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>291</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,49 +4941,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D18" s="7">
-        <v>28296</v>
+        <v>24942</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>53</v>
+      </c>
+      <c r="I18" s="7">
+        <v>37685</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="H18" s="7">
-        <v>49</v>
-      </c>
-      <c r="I18" s="7">
-        <v>31858</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>88</v>
+      </c>
+      <c r="N18" s="7">
+        <v>62627</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="M18" s="7">
-        <v>91</v>
-      </c>
-      <c r="N18" s="7">
-        <v>60154</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>301</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,46 +4992,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="D19" s="7">
-        <v>549</v>
+        <v>108987</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>132</v>
+      </c>
+      <c r="I19" s="7">
+        <v>95583</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1067</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>306</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>278</v>
       </c>
       <c r="N19" s="7">
-        <v>1616</v>
+        <v>204569</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>308</v>
@@ -5043,10 +5043,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="D20" s="7">
-        <v>44426</v>
+        <v>143487</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>309</v>
@@ -5058,10 +5058,10 @@
         <v>311</v>
       </c>
       <c r="H20" s="7">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="I20" s="7">
-        <v>47809</v>
+        <v>126966</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>312</v>
@@ -5073,10 +5073,10 @@
         <v>314</v>
       </c>
       <c r="M20" s="7">
-        <v>135</v>
+        <v>374</v>
       </c>
       <c r="N20" s="7">
-        <v>92236</v>
+        <v>270453</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>315</v>
@@ -5094,49 +5094,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>115</v>
+        <v>381</v>
       </c>
       <c r="D21" s="7">
-        <v>79732</v>
+        <v>281629</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H21" s="7">
-        <v>138</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>91513</v>
+        <v>264642</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="M21" s="7">
-        <v>253</v>
+        <v>752</v>
       </c>
       <c r="N21" s="7">
-        <v>171245</v>
+        <v>546270</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,40 +5147,40 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>30759</v>
+        <v>1239</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>318</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1684</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="H22" s="7">
-        <v>65</v>
-      </c>
-      <c r="I22" s="7">
-        <v>45719</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>321</v>
       </c>
       <c r="M22" s="7">
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>76477</v>
+        <v>2923</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>322</v>
@@ -5207,7 +5207,7 @@
         <v>325</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>326</v>
@@ -5237,7 +5237,7 @@
         <v>330</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>331</v>
@@ -5249,10 +5249,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>188</v>
+        <v>43</v>
       </c>
       <c r="D24" s="7">
-        <v>137283</v>
+        <v>30759</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>332</v>
@@ -5264,34 +5264,34 @@
         <v>334</v>
       </c>
       <c r="H24" s="7">
+        <v>65</v>
+      </c>
+      <c r="I24" s="7">
+        <v>45719</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="I24" s="7">
-        <v>127441</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>108</v>
+      </c>
+      <c r="N24" s="7">
+        <v>76477</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="M24" s="7">
-        <v>369</v>
-      </c>
-      <c r="N24" s="7">
-        <v>264724</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5300,40 +5300,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>188</v>
       </c>
       <c r="D25" s="7">
-        <v>1239</v>
+        <v>137283</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>181</v>
+      </c>
+      <c r="I25" s="7">
+        <v>127441</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1684</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>344</v>
       </c>
       <c r="M25" s="7">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="N25" s="7">
-        <v>2923</v>
+        <v>264724</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>345</v>
@@ -5378,7 +5378,7 @@
         <v>352</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="M26" s="7">
         <v>509</v>
@@ -5408,13 +5408,13 @@
         <v>361361</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H27" s="7">
         <v>509</v>
@@ -5423,13 +5423,13 @@
         <v>356155</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="M27" s="7">
         <v>1005</v>
@@ -5438,13 +5438,13 @@
         <v>717516</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A11-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16AE4706-CC85-4D69-8A69-DB64C935001D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFFF8442-E1FC-4D1D-9CAE-D8191308C589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C8A66088-456D-4E75-9EE0-C3D5F5DA13A5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0A73BC7A-5F7D-4727-BFB9-5C03A517B949}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="359">
   <si>
     <t>Menores según frecuencia de haber podido estar al aire libre en 2007 (Tasa respuesta: 47,29%)</t>
   </si>
@@ -67,1045 +67,1054 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 44,88%)</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
   </si>
   <si>
     <t>34,61%</t>
   </si>
   <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido estar al aire libre en 2015 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
   </si>
   <si>
     <t>12,84%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 44,88%)</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido estar al aire libre en 2015 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,02%</t>
+    <t>1,6%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1125,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1212,39 +1221,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1296,7 +1305,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1407,13 +1416,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1422,6 +1424,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1486,19 +1495,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7855EB26-43E1-445D-8F26-E51860CD7D50}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C484D64B-71E3-45D7-BEF9-E9BB889EE6A4}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1889,47 +1918,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,47 +1963,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,49 +2006,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>12</v>
-      </c>
-      <c r="D12" s="7">
-        <v>7776</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>15</v>
-      </c>
-      <c r="I12" s="7">
-        <v>9951</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>27</v>
-      </c>
-      <c r="N12" s="7">
-        <v>17727</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,49 +2051,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>35</v>
-      </c>
-      <c r="D13" s="7">
-        <v>23500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>39</v>
-      </c>
-      <c r="I13" s="7">
-        <v>26697</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>74</v>
-      </c>
-      <c r="N13" s="7">
-        <v>50197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,49 +2096,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>53</v>
-      </c>
-      <c r="D14" s="7">
-        <v>34791</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>29</v>
-      </c>
-      <c r="I14" s="7">
-        <v>19394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>82</v>
-      </c>
-      <c r="N14" s="7">
-        <v>54184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,102 +2141,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>100</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>83</v>
-      </c>
-      <c r="I15" s="7">
-        <v>56042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>183</v>
-      </c>
-      <c r="N15" s="7">
-        <v>122107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="D16" s="7">
-        <v>680</v>
+        <v>56200</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="I16" s="7">
-        <v>462</v>
+        <v>45302</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="N16" s="7">
-        <v>1142</v>
+        <v>101502</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,49 +2239,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="D17" s="7">
-        <v>3186</v>
+        <v>66813</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="I17" s="7">
-        <v>4221</v>
+        <v>58621</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="N17" s="7">
-        <v>7407</v>
+        <v>125433</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,49 +2290,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D18" s="7">
-        <v>35882</v>
+        <v>17808</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="I18" s="7">
-        <v>41081</v>
+        <v>21122</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="N18" s="7">
-        <v>76963</v>
+        <v>38930</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,49 +2341,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>204</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>136296</v>
+        <v>695</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>129242</v>
+        <v>1387</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
-        <v>394</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>265538</v>
+        <v>2082</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,49 +2392,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>103477</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7">
-        <v>135</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>89943</v>
+        <v>462</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="M20" s="7">
-        <v>290</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>193421</v>
+        <v>462</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,102 +2443,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>419</v>
+        <v>212</v>
       </c>
       <c r="D21" s="7">
-        <v>279521</v>
+        <v>141515</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>393</v>
+        <v>190</v>
       </c>
       <c r="I21" s="7">
-        <v>264949</v>
+        <v>126894</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>812</v>
+        <v>402</v>
       </c>
       <c r="N21" s="7">
-        <v>544471</v>
+        <v>268409</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="D22" s="7">
-        <v>680</v>
+        <v>82069</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="I22" s="7">
-        <v>462</v>
+        <v>64034</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="N22" s="7">
-        <v>1142</v>
+        <v>146103</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,49 +2547,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="D23" s="7">
-        <v>3186</v>
+        <v>92983</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="H23" s="7">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="I23" s="7">
-        <v>4221</v>
+        <v>97318</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="M23" s="7">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="N23" s="7">
-        <v>7407</v>
+        <v>190301</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,49 +2598,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D24" s="7">
-        <v>43658</v>
+        <v>25850</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H24" s="7">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="I24" s="7">
-        <v>51032</v>
+        <v>29910</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="M24" s="7">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="N24" s="7">
-        <v>94690</v>
+        <v>55760</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,49 +2649,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>159796</v>
+        <v>2491</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="H25" s="7">
-        <v>229</v>
+        <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>155939</v>
+        <v>2834</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="M25" s="7">
-        <v>468</v>
+        <v>8</v>
       </c>
       <c r="N25" s="7">
-        <v>315735</v>
+        <v>5325</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,49 +2700,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>208</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>138268</v>
+        <v>680</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="H26" s="7">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>109337</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="M26" s="7">
-        <v>372</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>247605</v>
+        <v>680</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,55 +2751,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>307</v>
+      </c>
+      <c r="D27" s="7">
+        <v>204072</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>286</v>
+      </c>
+      <c r="I27" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>593</v>
+      </c>
+      <c r="N27" s="7">
+        <v>398169</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>208</v>
+      </c>
+      <c r="D28" s="7">
+        <v>138268</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="7">
+        <v>164</v>
+      </c>
+      <c r="I28" s="7">
+        <v>109337</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M28" s="7">
+        <v>372</v>
+      </c>
+      <c r="N28" s="7">
+        <v>247605</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>239</v>
+      </c>
+      <c r="D29" s="7">
+        <v>159796</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="7">
+        <v>229</v>
+      </c>
+      <c r="I29" s="7">
+        <v>155939</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M29" s="7">
+        <v>468</v>
+      </c>
+      <c r="N29" s="7">
+        <v>315735</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>66</v>
+      </c>
+      <c r="D30" s="7">
+        <v>43658</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="7">
+        <v>76</v>
+      </c>
+      <c r="I30" s="7">
+        <v>51032</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M30" s="7">
+        <v>142</v>
+      </c>
+      <c r="N30" s="7">
+        <v>94690</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3186</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="7">
+        <v>6</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4221</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M31" s="7">
+        <v>11</v>
+      </c>
+      <c r="N31" s="7">
+        <v>7407</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>680</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>462</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M32" s="7">
+        <v>2</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1142</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>519</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>345587</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>476</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>320991</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>995</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>666578</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>49</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2819,8 +3126,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F90D3C-9931-4AAA-BB48-CEDE06A67F85}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67873A01-417F-48BC-B4ED-65CF30268166}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2836,7 +3143,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3211,47 +3518,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,49 +3561,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>679</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>627</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1306</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,49 +3606,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3559</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>10</v>
-      </c>
-      <c r="N12" s="7">
-        <v>7116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,49 +3651,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>38</v>
-      </c>
-      <c r="D13" s="7">
-        <v>27575</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>45</v>
-      </c>
-      <c r="I13" s="7">
-        <v>32211</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>83</v>
-      </c>
-      <c r="N13" s="7">
-        <v>59786</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,49 +3696,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>48</v>
-      </c>
-      <c r="D14" s="7">
-        <v>34362</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>50</v>
-      </c>
-      <c r="I14" s="7">
-        <v>35573</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>98</v>
-      </c>
-      <c r="N14" s="7">
-        <v>69935</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,102 +3741,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>101</v>
-      </c>
-      <c r="I15" s="7">
-        <v>71969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>193</v>
-      </c>
-      <c r="N15" s="7">
-        <v>138143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="D16" s="7">
-        <v>1294</v>
+        <v>77665</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>89723</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>239</v>
       </c>
       <c r="N16" s="7">
-        <v>1294</v>
+        <v>167389</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,49 +3839,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D17" s="7">
-        <v>3826</v>
+        <v>63621</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" s="7">
+        <v>80</v>
+      </c>
+      <c r="I17" s="7">
+        <v>56738</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M17" s="7">
         <v>172</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1464</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M17" s="7">
-        <v>8</v>
-      </c>
       <c r="N17" s="7">
-        <v>5289</v>
+        <v>120359</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,49 +3890,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D18" s="7">
-        <v>18676</v>
+        <v>14085</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="H18" s="7">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I18" s="7">
-        <v>21577</v>
+        <v>8426</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="M18" s="7">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="N18" s="7">
-        <v>40253</v>
+        <v>22511</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,49 +3941,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>96157</v>
+        <v>1304</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>188</v>
+        <v>58</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>189</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="H19" s="7">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>90437</v>
+        <v>627</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>192</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="M19" s="7">
-        <v>273</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>186593</v>
+        <v>1931</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,49 +3992,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>146381</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>197</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>198</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="H20" s="7">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>137199</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>202</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>283580</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>203</v>
+        <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,102 +4043,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>392</v>
+        <v>225</v>
       </c>
       <c r="D21" s="7">
-        <v>266334</v>
+        <v>156674</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>357</v>
+        <v>221</v>
       </c>
       <c r="I21" s="7">
-        <v>250676</v>
+        <v>155514</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>749</v>
+        <v>446</v>
       </c>
       <c r="N21" s="7">
-        <v>517010</v>
+        <v>312189</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D22" s="7">
-        <v>1294</v>
+        <v>103079</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>83048</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>57</v>
+        <v>181</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>267</v>
       </c>
       <c r="N22" s="7">
-        <v>1294</v>
+        <v>186126</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,49 +4147,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D23" s="7">
-        <v>4504</v>
+        <v>60112</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="I23" s="7">
-        <v>2090</v>
+        <v>65908</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="M23" s="7">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="N23" s="7">
-        <v>6595</v>
+        <v>126020</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,49 +4198,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D24" s="7">
-        <v>22234</v>
+        <v>8149</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="H24" s="7">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I24" s="7">
-        <v>25136</v>
+        <v>16710</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="M24" s="7">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="N24" s="7">
-        <v>47369</v>
+        <v>24859</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,49 +4249,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>181</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>123732</v>
+        <v>3201</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>225</v>
+        <v>99</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="H25" s="7">
-        <v>175</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>122647</v>
+        <v>1464</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>228</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="M25" s="7">
-        <v>356</v>
+        <v>7</v>
       </c>
       <c r="N25" s="7">
-        <v>246379</v>
+        <v>4664</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>231</v>
+        <v>135</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,49 +4300,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>261</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>180743</v>
+        <v>1294</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>234</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="H26" s="7">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>172772</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>236</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>237</v>
+        <v>53</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="M26" s="7">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>353515</v>
+        <v>1294</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,55 +4351,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>259</v>
+      </c>
+      <c r="D27" s="7">
+        <v>175834</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>237</v>
+      </c>
+      <c r="I27" s="7">
+        <v>167130</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>496</v>
+      </c>
+      <c r="N27" s="7">
+        <v>342964</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>261</v>
+      </c>
+      <c r="D28" s="7">
+        <v>180743</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H28" s="7">
+        <v>245</v>
+      </c>
+      <c r="I28" s="7">
+        <v>172772</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="M28" s="7">
+        <v>506</v>
+      </c>
+      <c r="N28" s="7">
+        <v>353515</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>181</v>
+      </c>
+      <c r="D29" s="7">
+        <v>123732</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H29" s="7">
+        <v>175</v>
+      </c>
+      <c r="I29" s="7">
+        <v>122647</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M29" s="7">
+        <v>356</v>
+      </c>
+      <c r="N29" s="7">
+        <v>246379</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>33</v>
+      </c>
+      <c r="D30" s="7">
+        <v>22234</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H30" s="7">
+        <v>35</v>
+      </c>
+      <c r="I30" s="7">
+        <v>25136</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M30" s="7">
+        <v>68</v>
+      </c>
+      <c r="N30" s="7">
+        <v>47369</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4504</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2090</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M31" s="7">
+        <v>10</v>
+      </c>
+      <c r="N31" s="7">
+        <v>6595</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1294</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M32" s="7">
+        <v>2</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1294</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>484</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>332508</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>458</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>322645</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>942</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>655153</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>49</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4141,8 +4726,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0CC4E6-9DC2-4E01-84E6-A616816E0C0F}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7506B2-2E85-41BB-AF1D-78A0045683DE}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4158,7 +4743,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4531,49 +5116,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>549</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>243</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>244</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1067</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1616</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,49 +5161,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>644</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2745</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
-      </c>
-      <c r="N11" s="7">
-        <v>3389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,49 +5206,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7">
-        <v>5817</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>12</v>
-      </c>
-      <c r="I12" s="7">
-        <v>8033</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>20</v>
-      </c>
-      <c r="N12" s="7">
-        <v>13850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,49 +5251,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>42</v>
-      </c>
-      <c r="D13" s="7">
-        <v>28296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>49</v>
-      </c>
-      <c r="I13" s="7">
-        <v>31858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>91</v>
-      </c>
-      <c r="N13" s="7">
-        <v>60154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,49 +5296,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>63</v>
-      </c>
-      <c r="D14" s="7">
-        <v>44426</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>72</v>
-      </c>
-      <c r="I14" s="7">
-        <v>47809</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>135</v>
-      </c>
-      <c r="N14" s="7">
-        <v>92236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,102 +5341,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>115</v>
-      </c>
-      <c r="D15" s="7">
-        <v>79732</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>138</v>
-      </c>
-      <c r="I15" s="7">
-        <v>91513</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>253</v>
-      </c>
-      <c r="N15" s="7">
-        <v>171245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="D16" s="7">
-        <v>690</v>
+        <v>103417</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="I16" s="7">
-        <v>617</v>
+        <v>97114</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="M16" s="7">
         <v>283</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M16" s="7">
-        <v>2</v>
-      </c>
       <c r="N16" s="7">
-        <v>1307</v>
+        <v>200531</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>51</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,49 +5439,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="D17" s="7">
-        <v>3523</v>
+        <v>66775</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="I17" s="7">
-        <v>3790</v>
+        <v>59367</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="M17" s="7">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="N17" s="7">
-        <v>7313</v>
+        <v>126142</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>173</v>
+        <v>267</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,49 +5490,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D18" s="7">
-        <v>24942</v>
+        <v>14448</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="H18" s="7">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="I18" s="7">
-        <v>37685</v>
+        <v>22892</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="M18" s="7">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="N18" s="7">
-        <v>62627</v>
+        <v>37340</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>299</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,49 +5541,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>146</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>108987</v>
+        <v>1434</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>302</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="H19" s="7">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="I19" s="7">
-        <v>95583</v>
+        <v>4926</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="M19" s="7">
-        <v>278</v>
+        <v>9</v>
       </c>
       <c r="N19" s="7">
-        <v>204569</v>
+        <v>6360</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>47</v>
+        <v>282</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>307</v>
+        <v>54</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,49 +5592,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>194</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>143487</v>
+        <v>1239</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>310</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="H20" s="7">
-        <v>180</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>126966</v>
+        <v>1684</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>313</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="M20" s="7">
-        <v>374</v>
+        <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>270453</v>
+        <v>2923</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>50</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>316</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,102 +5643,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>381</v>
+        <v>261</v>
       </c>
       <c r="D21" s="7">
-        <v>281629</v>
+        <v>187313</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>371</v>
+        <v>267</v>
       </c>
       <c r="I21" s="7">
-        <v>264642</v>
+        <v>185983</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>752</v>
+        <v>528</v>
       </c>
       <c r="N21" s="7">
-        <v>546270</v>
+        <v>373296</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="D22" s="7">
-        <v>1239</v>
+        <v>84497</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="I22" s="7">
-        <v>1684</v>
+        <v>77661</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="M22" s="7">
-        <v>4</v>
+        <v>226</v>
       </c>
       <c r="N22" s="7">
-        <v>2923</v>
+        <v>162158</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,49 +5747,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D23" s="7">
-        <v>4167</v>
+        <v>70508</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>206</v>
+        <v>299</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="H23" s="7">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="I23" s="7">
-        <v>6536</v>
+        <v>68074</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="M23" s="7">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c r="N23" s="7">
-        <v>10703</v>
+        <v>138582</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5249,49 +5798,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D24" s="7">
-        <v>30759</v>
+        <v>16310</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="H24" s="7">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="I24" s="7">
-        <v>45719</v>
+        <v>22827</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>65</v>
+        <v>310</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>181</v>
+        <v>311</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="M24" s="7">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="N24" s="7">
-        <v>76477</v>
+        <v>39137</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5300,49 +5849,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>188</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>137283</v>
+        <v>2733</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>340</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="H25" s="7">
-        <v>181</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>127441</v>
+        <v>1610</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>343</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="M25" s="7">
-        <v>369</v>
+        <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>264724</v>
+        <v>4343</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>346</v>
+        <v>135</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,49 +5900,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>187914</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>348</v>
+        <v>46</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>349</v>
+        <v>53</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>350</v>
+        <v>210</v>
       </c>
       <c r="H26" s="7">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>174776</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>351</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>352</v>
+        <v>53</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="M26" s="7">
-        <v>509</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>362689</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>353</v>
+        <v>46</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>354</v>
+        <v>53</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>355</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,55 +5951,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>235</v>
+      </c>
+      <c r="D27" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>242</v>
+      </c>
+      <c r="I27" s="7">
+        <v>170172</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>477</v>
+      </c>
+      <c r="N27" s="7">
+        <v>344220</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>257</v>
+      </c>
+      <c r="D28" s="7">
+        <v>187914</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H28" s="7">
+        <v>252</v>
+      </c>
+      <c r="I28" s="7">
+        <v>174776</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="M28" s="7">
+        <v>509</v>
+      </c>
+      <c r="N28" s="7">
+        <v>362689</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>188</v>
+      </c>
+      <c r="D29" s="7">
+        <v>137283</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H29" s="7">
+        <v>181</v>
+      </c>
+      <c r="I29" s="7">
+        <v>127441</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="M29" s="7">
+        <v>369</v>
+      </c>
+      <c r="N29" s="7">
+        <v>264724</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>43</v>
+      </c>
+      <c r="D30" s="7">
+        <v>30759</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H30" s="7">
+        <v>65</v>
+      </c>
+      <c r="I30" s="7">
+        <v>45719</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="M30" s="7">
+        <v>108</v>
+      </c>
+      <c r="N30" s="7">
+        <v>76477</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>6</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4167</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H31" s="7">
+        <v>9</v>
+      </c>
+      <c r="I31" s="7">
+        <v>6536</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M31" s="7">
+        <v>15</v>
+      </c>
+      <c r="N31" s="7">
+        <v>10703</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1239</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1684</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="M32" s="7">
+        <v>4</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2923</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>496</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>361361</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>509</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>356155</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>1005</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>717516</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>49</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A11-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFFF8442-E1FC-4D1D-9CAE-D8191308C589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D1B3552-538A-48FB-A1AB-1DA2BD14332C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0A73BC7A-5F7D-4727-BFB9-5C03A517B949}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{755B4E5F-5CF9-44A1-B38E-654320F5823E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="362">
   <si>
     <t>Menores según frecuencia de haber podido estar al aire libre en 2007 (Tasa respuesta: 47,29%)</t>
   </si>
@@ -97,1015 +97,1024 @@
     <t>39,71%</t>
   </si>
   <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
   </si>
   <si>
     <t>35,7%</t>
   </si>
   <si>
-    <t>29,67%</t>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 44,88%)</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
   </si>
   <si>
     <t>43,04%</t>
   </si>
   <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido estar al aire libre en 2016 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
   </si>
   <si>
     <t>41,92%</t>
   </si>
   <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
   </si>
   <si>
     <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 44,88%)</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido estar al aire libre en 2015 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
   </si>
   <si>
     <t>0,41%</t>
@@ -1526,7 +1535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C484D64B-71E3-45D7-BEF9-E9BB889EE6A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B2AF03-7F01-4770-A79A-1BA2ECD0A098}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2419,7 +2428,7 @@
         <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -2428,13 +2437,13 @@
         <v>462</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,13 +2458,13 @@
         <v>141515</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>190</v>
@@ -2464,13 +2473,13 @@
         <v>126894</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>402</v>
@@ -2479,18 +2488,18 @@
         <v>268409</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2502,13 +2511,13 @@
         <v>82069</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H22" s="7">
         <v>95</v>
@@ -2517,13 +2526,13 @@
         <v>64034</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M22" s="7">
         <v>218</v>
@@ -2532,13 +2541,13 @@
         <v>146103</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,13 +2562,13 @@
         <v>92983</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H23" s="7">
         <v>143</v>
@@ -2568,13 +2577,13 @@
         <v>97318</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M23" s="7">
         <v>283</v>
@@ -2583,13 +2592,13 @@
         <v>190301</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,13 +2613,13 @@
         <v>25850</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H24" s="7">
         <v>44</v>
@@ -2619,13 +2628,13 @@
         <v>29910</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M24" s="7">
         <v>83</v>
@@ -2634,13 +2643,13 @@
         <v>55760</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,13 +2664,13 @@
         <v>2491</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2670,13 +2679,13 @@
         <v>2834</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -2685,13 +2694,13 @@
         <v>5325</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,13 +2715,13 @@
         <v>680</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2727,7 +2736,7 @@
         <v>53</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2736,13 +2745,13 @@
         <v>680</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,13 +2766,13 @@
         <v>204072</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>286</v>
@@ -2772,13 +2781,13 @@
         <v>194097</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>593</v>
@@ -2787,13 +2796,13 @@
         <v>398169</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2819,13 @@
         <v>138268</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H28" s="7">
         <v>164</v>
@@ -2825,13 +2834,13 @@
         <v>109337</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M28" s="7">
         <v>372</v>
@@ -2840,13 +2849,13 @@
         <v>247605</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,13 +2870,13 @@
         <v>159796</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H29" s="7">
         <v>229</v>
@@ -2876,13 +2885,13 @@
         <v>155939</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M29" s="7">
         <v>468</v>
@@ -2891,13 +2900,13 @@
         <v>315735</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2921,13 @@
         <v>43658</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H30" s="7">
         <v>76</v>
@@ -2927,13 +2936,13 @@
         <v>51032</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M30" s="7">
         <v>142</v>
@@ -2942,13 +2951,13 @@
         <v>94690</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2972,13 @@
         <v>3186</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -2978,13 +2987,13 @@
         <v>4221</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M31" s="7">
         <v>11</v>
@@ -2993,13 +3002,13 @@
         <v>7407</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +3023,13 @@
         <v>680</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3029,13 +3038,13 @@
         <v>462</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -3044,13 +3053,13 @@
         <v>1142</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,13 +3074,13 @@
         <v>345587</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
         <v>476</v>
@@ -3080,13 +3089,13 @@
         <v>320991</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
         <v>995</v>
@@ -3095,18 +3104,18 @@
         <v>666578</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3126,7 +3135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67873A01-417F-48BC-B4ED-65CF30268166}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC1EA95-0A26-4A98-81E5-B9AEA9325916}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3143,7 +3152,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3794,13 +3803,13 @@
         <v>77665</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H16" s="7">
         <v>128</v>
@@ -3809,13 +3818,13 @@
         <v>89723</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M16" s="7">
         <v>239</v>
@@ -3824,13 +3833,13 @@
         <v>167389</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +3854,13 @@
         <v>63621</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H17" s="7">
         <v>80</v>
@@ -3860,13 +3869,13 @@
         <v>56738</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M17" s="7">
         <v>172</v>
@@ -3875,13 +3884,13 @@
         <v>120359</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,13 +3905,13 @@
         <v>14085</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -3911,13 +3920,13 @@
         <v>8426</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M18" s="7">
         <v>32</v>
@@ -3926,13 +3935,13 @@
         <v>22511</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,13 +3956,13 @@
         <v>1304</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3962,13 +3971,13 @@
         <v>627</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -3977,13 +3986,13 @@
         <v>1931</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,7 +4013,7 @@
         <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4019,7 +4028,7 @@
         <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4034,7 +4043,7 @@
         <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,13 +4058,13 @@
         <v>156674</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>221</v>
@@ -4064,13 +4073,13 @@
         <v>155514</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>446</v>
@@ -4079,18 +4088,18 @@
         <v>312189</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4102,13 +4111,13 @@
         <v>103079</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H22" s="7">
         <v>117</v>
@@ -4117,13 +4126,13 @@
         <v>83048</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M22" s="7">
         <v>267</v>
@@ -4132,13 +4141,13 @@
         <v>186126</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4162,13 @@
         <v>60112</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H23" s="7">
         <v>95</v>
@@ -4168,13 +4177,13 @@
         <v>65908</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M23" s="7">
         <v>184</v>
@@ -4183,13 +4192,13 @@
         <v>126020</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4213,13 @@
         <v>8149</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -4219,13 +4228,13 @@
         <v>16710</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M24" s="7">
         <v>36</v>
@@ -4234,13 +4243,13 @@
         <v>24859</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,10 +4264,10 @@
         <v>3201</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>203</v>
@@ -4288,7 +4297,7 @@
         <v>206</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>207</v>
@@ -4357,13 +4366,13 @@
         <v>175834</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>237</v>
@@ -4372,13 +4381,13 @@
         <v>167130</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>496</v>
@@ -4387,13 +4396,13 @@
         <v>342964</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,7 +4578,7 @@
         <v>241</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -4578,13 +4587,13 @@
         <v>2090</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -4593,13 +4602,13 @@
         <v>6595</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,13 +4623,13 @@
         <v>1294</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4635,7 +4644,7 @@
         <v>53</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -4644,13 +4653,13 @@
         <v>1294</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,13 +4674,13 @@
         <v>332508</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
         <v>458</v>
@@ -4680,13 +4689,13 @@
         <v>322645</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
         <v>942</v>
@@ -4695,18 +4704,18 @@
         <v>655153</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4726,7 +4735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7506B2-2E85-41BB-AF1D-78A0045683DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715A5273-4453-4C58-AD51-4254C898B77A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4743,7 +4752,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5394,13 +5403,13 @@
         <v>103417</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>253</v>
+        <v>148</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H16" s="7">
         <v>140</v>
@@ -5409,13 +5418,13 @@
         <v>97114</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M16" s="7">
         <v>283</v>
@@ -5424,13 +5433,13 @@
         <v>200531</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,13 +5454,13 @@
         <v>66775</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="H17" s="7">
         <v>86</v>
@@ -5460,13 +5469,13 @@
         <v>59367</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M17" s="7">
         <v>180</v>
@@ -5475,13 +5484,13 @@
         <v>126142</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,13 +5505,13 @@
         <v>14448</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H18" s="7">
         <v>32</v>
@@ -5511,13 +5520,13 @@
         <v>22892</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M18" s="7">
         <v>52</v>
@@ -5526,13 +5535,13 @@
         <v>37340</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,13 +5556,13 @@
         <v>1434</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -5562,13 +5571,13 @@
         <v>4926</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -5577,13 +5586,13 @@
         <v>6360</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,13 +5607,13 @@
         <v>1239</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5613,13 +5622,13 @@
         <v>1684</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5631,10 +5640,10 @@
         <v>50</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,13 +5658,13 @@
         <v>187313</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>267</v>
@@ -5664,13 +5673,13 @@
         <v>185983</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>528</v>
@@ -5679,18 +5688,18 @@
         <v>373296</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5702,13 +5711,13 @@
         <v>84497</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H22" s="7">
         <v>112</v>
@@ -5717,13 +5726,13 @@
         <v>77661</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M22" s="7">
         <v>226</v>
@@ -5732,13 +5741,13 @@
         <v>162158</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,13 +5762,13 @@
         <v>70508</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H23" s="7">
         <v>95</v>
@@ -5768,13 +5777,13 @@
         <v>68074</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M23" s="7">
         <v>189</v>
@@ -5783,13 +5792,13 @@
         <v>138582</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,13 +5813,13 @@
         <v>16310</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -5819,13 +5828,13 @@
         <v>22827</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M24" s="7">
         <v>56</v>
@@ -5834,13 +5843,13 @@
         <v>39137</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5864,13 @@
         <v>2733</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5870,13 +5879,13 @@
         <v>1610</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -5885,13 +5894,13 @@
         <v>4343</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>135</v>
+        <v>322</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,7 +5936,7 @@
         <v>53</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5942,7 +5951,7 @@
         <v>53</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,13 +5966,13 @@
         <v>174048</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>242</v>
@@ -5972,13 +5981,13 @@
         <v>170172</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>477</v>
@@ -5987,13 +5996,13 @@
         <v>344220</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,13 +6019,13 @@
         <v>187914</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H28" s="7">
         <v>252</v>
@@ -6025,13 +6034,13 @@
         <v>174776</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M28" s="7">
         <v>509</v>
@@ -6040,13 +6049,13 @@
         <v>362689</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>155</v>
+        <v>332</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6061,13 +6070,13 @@
         <v>137283</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H29" s="7">
         <v>181</v>
@@ -6076,13 +6085,13 @@
         <v>127441</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M29" s="7">
         <v>369</v>
@@ -6091,13 +6100,13 @@
         <v>264724</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,13 +6121,13 @@
         <v>30759</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H30" s="7">
         <v>65</v>
@@ -6127,13 +6136,13 @@
         <v>45719</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M30" s="7">
         <v>108</v>
@@ -6142,13 +6151,13 @@
         <v>76477</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,13 +6172,13 @@
         <v>4167</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>175</v>
+        <v>352</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -6178,13 +6187,13 @@
         <v>6536</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>318</v>
+        <v>167</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M31" s="7">
         <v>15</v>
@@ -6193,13 +6202,13 @@
         <v>10703</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>286</v>
+        <v>204</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,13 +6223,13 @@
         <v>1239</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>129</v>
+        <v>358</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -6229,13 +6238,13 @@
         <v>1684</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>355</v>
+        <v>245</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -6244,13 +6253,13 @@
         <v>2923</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,13 +6274,13 @@
         <v>361361</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
         <v>509</v>
@@ -6280,13 +6289,13 @@
         <v>356155</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
         <v>1005</v>
@@ -6295,18 +6304,18 @@
         <v>717516</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A11-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D1B3552-538A-48FB-A1AB-1DA2BD14332C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B13C9C16-2643-4901-B4A0-EE3D12987EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{755B4E5F-5CF9-44A1-B38E-654320F5823E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FD844947-29F0-432A-82FE-449F4C596433}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="366">
   <si>
     <t>Menores según frecuencia de haber podido estar al aire libre en 2007 (Tasa respuesta: 47,29%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,1036 +94,1048 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
     <t>39,71%</t>
   </si>
   <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
   </si>
   <si>
     <t>37,82%</t>
   </si>
   <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
   </si>
   <si>
     <t>47,21%</t>
   </si>
   <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
   </si>
   <si>
     <t>12,58%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>0,0%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 44,88%)</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
   </si>
   <si>
     <t>40,62%</t>
   </si>
   <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 44,88%)</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido estar al aire libre en 2016 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
   </si>
   <si>
     <t>8,95%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido estar al aire libre en 2016 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
+    <t>16,97%</t>
   </si>
   <si>
     <t>7,71%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>2,45%</t>
   </si>
   <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>3,05%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
   </si>
   <si>
     <t>48,55%</t>
   </si>
   <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
   </si>
   <si>
     <t>47,11%</t>
   </si>
   <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
   </si>
   <si>
     <t>40,51%</t>
   </si>
   <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
   </si>
   <si>
     <t>40,26%</t>
   </si>
   <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
   </si>
   <si>
     <t>9,37%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
   </si>
   <si>
     <t>11,37%</t>
   </si>
   <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
+    <t>3,89%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
+    <t>2,02%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
   </si>
 </sst>
 </file>
@@ -1535,7 +1547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B2AF03-7F01-4770-A79A-1BA2ECD0A098}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87D6459-5B66-46B3-B545-08D89E1BE9D2}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2197,10 +2209,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D16" s="7">
-        <v>56200</v>
+        <v>45302</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2212,10 +2224,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="I16" s="7">
-        <v>45302</v>
+        <v>56200</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2248,10 +2260,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D17" s="7">
-        <v>66813</v>
+        <v>58621</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2263,10 +2275,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="I17" s="7">
-        <v>58621</v>
+        <v>66813</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2299,10 +2311,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D18" s="7">
-        <v>17808</v>
+        <v>21122</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2314,10 +2326,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I18" s="7">
-        <v>21122</v>
+        <v>17808</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2350,10 +2362,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>695</v>
+        <v>1387</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2365,10 +2377,10 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>1387</v>
+        <v>695</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -2401,34 +2413,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>54</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>462</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -2437,13 +2449,13 @@
         <v>462</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,34 +2464,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>190</v>
+      </c>
+      <c r="D21" s="7">
+        <v>126894</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>212</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>141515</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="7">
-        <v>190</v>
-      </c>
-      <c r="I21" s="7">
-        <v>126894</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>402</v>
@@ -2488,51 +2500,51 @@
         <v>268409</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>95</v>
+      </c>
+      <c r="D22" s="7">
+        <v>64034</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="7">
         <v>123</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>82069</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="7">
-        <v>95</v>
-      </c>
-      <c r="I22" s="7">
-        <v>64034</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
         <v>218</v>
@@ -2541,13 +2553,13 @@
         <v>146103</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,34 +2568,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>143</v>
+      </c>
+      <c r="D23" s="7">
+        <v>97318</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="7">
         <v>140</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>92983</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="7">
-        <v>143</v>
-      </c>
-      <c r="I23" s="7">
-        <v>97318</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M23" s="7">
         <v>283</v>
@@ -2592,13 +2604,13 @@
         <v>190301</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,34 +2619,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>44</v>
+      </c>
+      <c r="D24" s="7">
+        <v>29910</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="7">
         <v>39</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>25850</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" s="7">
-        <v>44</v>
-      </c>
-      <c r="I24" s="7">
-        <v>29910</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M24" s="7">
         <v>83</v>
@@ -2643,13 +2655,13 @@
         <v>55760</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,31 +2673,31 @@
         <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>2491</v>
+        <v>2834</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>2834</v>
+        <v>2491</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -2694,13 +2706,13 @@
         <v>5325</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,34 +2721,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>680</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2745,13 +2757,13 @@
         <v>680</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,34 +2772,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>286</v>
+      </c>
+      <c r="D27" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>307</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>204072</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
-        <v>286</v>
-      </c>
-      <c r="I27" s="7">
-        <v>194097</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>593</v>
@@ -2796,13 +2808,13 @@
         <v>398169</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,34 +2825,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>164</v>
+      </c>
+      <c r="D28" s="7">
+        <v>109337</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="7">
         <v>208</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>138268</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H28" s="7">
-        <v>164</v>
-      </c>
-      <c r="I28" s="7">
-        <v>109337</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M28" s="7">
         <v>372</v>
@@ -2849,13 +2861,13 @@
         <v>247605</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,34 +2876,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>229</v>
+      </c>
+      <c r="D29" s="7">
+        <v>155939</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="7">
         <v>239</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>159796</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H29" s="7">
-        <v>229</v>
-      </c>
-      <c r="I29" s="7">
-        <v>155939</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M29" s="7">
         <v>468</v>
@@ -2900,13 +2912,13 @@
         <v>315735</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,34 +2927,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>76</v>
+      </c>
+      <c r="D30" s="7">
+        <v>51032</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="7">
         <v>66</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>43658</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H30" s="7">
-        <v>76</v>
-      </c>
-      <c r="I30" s="7">
-        <v>51032</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M30" s="7">
         <v>142</v>
@@ -2951,13 +2963,13 @@
         <v>94690</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,34 +2978,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>6</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4221</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="7">
         <v>5</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>3186</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H31" s="7">
-        <v>6</v>
-      </c>
-      <c r="I31" s="7">
-        <v>4221</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M31" s="7">
         <v>11</v>
@@ -3002,13 +3014,13 @@
         <v>7407</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,31 +3032,31 @@
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>680</v>
+        <v>462</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>462</v>
+        <v>680</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -3053,13 +3065,13 @@
         <v>1142</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,34 +3080,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>476</v>
+      </c>
+      <c r="D33" s="7">
+        <v>320991</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>519</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>345587</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="7">
-        <v>476</v>
-      </c>
-      <c r="I33" s="7">
-        <v>320991</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>995</v>
@@ -3104,18 +3116,18 @@
         <v>666578</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3135,7 +3147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC1EA95-0A26-4A98-81E5-B9AEA9325916}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{380F3D4E-D1FB-4577-BA53-3119FD941322}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3152,7 +3164,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3797,34 +3809,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>128</v>
+      </c>
+      <c r="D16" s="7">
+        <v>89723</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="7">
         <v>111</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>77665</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" s="7">
-        <v>128</v>
-      </c>
-      <c r="I16" s="7">
-        <v>89723</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M16" s="7">
         <v>239</v>
@@ -3833,13 +3845,13 @@
         <v>167389</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,34 +3860,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>80</v>
+      </c>
+      <c r="D17" s="7">
+        <v>56738</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" s="7">
         <v>92</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>63621</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H17" s="7">
-        <v>80</v>
-      </c>
-      <c r="I17" s="7">
-        <v>56738</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M17" s="7">
         <v>172</v>
@@ -3884,13 +3896,13 @@
         <v>120359</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,34 +3911,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7">
+        <v>8426</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" s="7">
         <v>20</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>14085</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H18" s="7">
-        <v>12</v>
-      </c>
-      <c r="I18" s="7">
-        <v>8426</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M18" s="7">
         <v>32</v>
@@ -3935,13 +3947,13 @@
         <v>22511</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,34 +3962,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>1304</v>
+        <v>627</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>627</v>
+        <v>1304</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -3986,13 +3998,13 @@
         <v>1931</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>172</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,10 +4022,10 @@
         <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4025,10 +4037,10 @@
         <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4040,10 +4052,10 @@
         <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,34 +4064,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>221</v>
+      </c>
+      <c r="D21" s="7">
+        <v>155514</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>225</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>156674</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="7">
-        <v>221</v>
-      </c>
-      <c r="I21" s="7">
-        <v>155514</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>446</v>
@@ -4088,51 +4100,51 @@
         <v>312189</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>117</v>
+      </c>
+      <c r="D22" s="7">
+        <v>83048</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H22" s="7">
         <v>150</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>103079</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H22" s="7">
-        <v>117</v>
-      </c>
-      <c r="I22" s="7">
-        <v>83048</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M22" s="7">
         <v>267</v>
@@ -4141,13 +4153,13 @@
         <v>186126</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,34 +4168,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>95</v>
+      </c>
+      <c r="D23" s="7">
+        <v>65908</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H23" s="7">
         <v>89</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>60112</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H23" s="7">
-        <v>95</v>
-      </c>
-      <c r="I23" s="7">
-        <v>65908</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M23" s="7">
         <v>184</v>
@@ -4192,13 +4204,13 @@
         <v>126020</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,34 +4219,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>23</v>
+      </c>
+      <c r="D24" s="7">
+        <v>16710</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H24" s="7">
         <v>13</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>8149</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H24" s="7">
-        <v>23</v>
-      </c>
-      <c r="I24" s="7">
-        <v>16710</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M24" s="7">
         <v>36</v>
@@ -4243,13 +4255,13 @@
         <v>24859</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,34 +4270,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1464</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H25" s="7">
         <v>5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>3201</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1464</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -4294,13 +4306,13 @@
         <v>4664</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>132</v>
+        <v>211</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,34 +4321,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H26" s="7">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>1294</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -4345,13 +4357,13 @@
         <v>1294</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,34 +4372,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>237</v>
+      </c>
+      <c r="D27" s="7">
+        <v>167130</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>259</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>175834</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
-        <v>237</v>
-      </c>
-      <c r="I27" s="7">
-        <v>167130</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>496</v>
@@ -4396,13 +4408,13 @@
         <v>342964</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,34 +4425,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>245</v>
+      </c>
+      <c r="D28" s="7">
+        <v>172772</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H28" s="7">
         <v>261</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>180743</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H28" s="7">
-        <v>245</v>
-      </c>
-      <c r="I28" s="7">
-        <v>172772</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M28" s="7">
         <v>506</v>
@@ -4449,13 +4461,13 @@
         <v>353515</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,34 +4476,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>175</v>
+      </c>
+      <c r="D29" s="7">
+        <v>122647</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H29" s="7">
         <v>181</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>123732</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H29" s="7">
-        <v>175</v>
-      </c>
-      <c r="I29" s="7">
-        <v>122647</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M29" s="7">
         <v>356</v>
@@ -4500,13 +4512,13 @@
         <v>246379</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,34 +4527,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>35</v>
+      </c>
+      <c r="D30" s="7">
+        <v>25136</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H30" s="7">
         <v>33</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>22234</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H30" s="7">
-        <v>35</v>
-      </c>
-      <c r="I30" s="7">
-        <v>25136</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M30" s="7">
         <v>68</v>
@@ -4551,13 +4563,13 @@
         <v>47369</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,34 +4578,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2090</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H31" s="7">
         <v>7</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>4504</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H31" s="7">
-        <v>3</v>
-      </c>
-      <c r="I31" s="7">
-        <v>2090</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -4602,13 +4614,13 @@
         <v>6595</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,34 +4629,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H32" s="7">
         <v>2</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>1294</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="J32" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="L32" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -4653,13 +4665,13 @@
         <v>1294</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,34 +4680,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>458</v>
+      </c>
+      <c r="D33" s="7">
+        <v>322645</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>484</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>332508</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="7">
-        <v>458</v>
-      </c>
-      <c r="I33" s="7">
-        <v>322645</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>942</v>
@@ -4704,18 +4716,18 @@
         <v>655153</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4735,7 +4747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715A5273-4453-4C58-AD51-4254C898B77A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09AB2874-CE8D-4435-9702-CF96B4CEC4D6}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4752,7 +4764,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5397,34 +5409,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>140</v>
+      </c>
+      <c r="D16" s="7">
+        <v>97114</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H16" s="7">
         <v>143</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>103417</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H16" s="7">
-        <v>140</v>
-      </c>
-      <c r="I16" s="7">
-        <v>97114</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
         <v>283</v>
@@ -5433,13 +5445,13 @@
         <v>200531</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,34 +5460,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>59367</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H17" s="7">
         <v>94</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>66775</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H17" s="7">
-        <v>86</v>
-      </c>
-      <c r="I17" s="7">
-        <v>59367</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M17" s="7">
         <v>180</v>
@@ -5484,13 +5496,13 @@
         <v>126142</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,34 +5511,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>32</v>
+      </c>
+      <c r="D18" s="7">
+        <v>22892</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H18" s="7">
         <v>20</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>14448</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H18" s="7">
-        <v>32</v>
-      </c>
-      <c r="I18" s="7">
-        <v>22892</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M18" s="7">
         <v>52</v>
@@ -5535,13 +5547,13 @@
         <v>37340</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,34 +5562,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>7</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4926</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H19" s="7">
         <v>2</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>1434</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="J19" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H19" s="7">
-        <v>7</v>
-      </c>
-      <c r="I19" s="7">
-        <v>4926</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>282</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -5586,13 +5598,13 @@
         <v>6360</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>54</v>
+        <v>287</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,31 +5616,31 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>1239</v>
+        <v>1684</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>1684</v>
+        <v>1239</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>288</v>
+        <v>141</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5640,10 +5652,10 @@
         <v>50</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>56</v>
+        <v>292</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>248</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,34 +5664,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>267</v>
+      </c>
+      <c r="D21" s="7">
+        <v>185983</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>261</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>187313</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="7">
-        <v>267</v>
-      </c>
-      <c r="I21" s="7">
-        <v>185983</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>528</v>
@@ -5688,51 +5700,51 @@
         <v>373296</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>112</v>
+      </c>
+      <c r="D22" s="7">
+        <v>77661</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H22" s="7">
         <v>114</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>84497</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="H22" s="7">
-        <v>112</v>
-      </c>
-      <c r="I22" s="7">
-        <v>77661</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M22" s="7">
         <v>226</v>
@@ -5741,13 +5753,13 @@
         <v>162158</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,34 +5768,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>95</v>
+      </c>
+      <c r="D23" s="7">
+        <v>68074</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H23" s="7">
         <v>94</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>70508</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H23" s="7">
-        <v>95</v>
-      </c>
-      <c r="I23" s="7">
-        <v>68074</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M23" s="7">
         <v>189</v>
@@ -5792,13 +5804,13 @@
         <v>138582</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,34 +5819,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>33</v>
+      </c>
+      <c r="D24" s="7">
+        <v>22827</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H24" s="7">
         <v>23</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>16310</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H24" s="7">
-        <v>33</v>
-      </c>
-      <c r="I24" s="7">
-        <v>22827</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M24" s="7">
         <v>56</v>
@@ -5843,13 +5855,13 @@
         <v>39137</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,34 +5870,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1610</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H25" s="7">
         <v>4</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>2733</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1610</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>46</v>
+        <v>253</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -5894,13 +5906,13 @@
         <v>4343</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>322</v>
+        <v>89</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,10 +5930,10 @@
         <v>46</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5933,10 +5945,10 @@
         <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>324</v>
+        <v>213</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5948,10 +5960,10 @@
         <v>46</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,34 +5972,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>242</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170172</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>235</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>174048</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
-        <v>242</v>
-      </c>
-      <c r="I27" s="7">
-        <v>170172</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>477</v>
@@ -5996,13 +6008,13 @@
         <v>344220</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6013,34 +6025,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>252</v>
+      </c>
+      <c r="D28" s="7">
+        <v>174776</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H28" s="7">
         <v>257</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>187914</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H28" s="7">
-        <v>252</v>
-      </c>
-      <c r="I28" s="7">
-        <v>174776</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M28" s="7">
         <v>509</v>
@@ -6049,13 +6061,13 @@
         <v>362689</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6064,34 +6076,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>181</v>
+      </c>
+      <c r="D29" s="7">
+        <v>127441</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H29" s="7">
         <v>188</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>137283</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="H29" s="7">
-        <v>181</v>
-      </c>
-      <c r="I29" s="7">
-        <v>127441</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M29" s="7">
         <v>369</v>
@@ -6100,13 +6112,13 @@
         <v>264724</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,34 +6127,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>65</v>
+      </c>
+      <c r="D30" s="7">
+        <v>45719</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H30" s="7">
         <v>43</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>30759</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="H30" s="7">
-        <v>65</v>
-      </c>
-      <c r="I30" s="7">
-        <v>45719</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M30" s="7">
         <v>108</v>
@@ -6151,13 +6163,13 @@
         <v>76477</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,34 +6178,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>9</v>
+      </c>
+      <c r="D31" s="7">
+        <v>6536</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H31" s="7">
         <v>6</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>4167</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H31" s="7">
-        <v>9</v>
-      </c>
-      <c r="I31" s="7">
-        <v>6536</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>167</v>
+        <v>253</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M31" s="7">
         <v>15</v>
@@ -6202,13 +6214,13 @@
         <v>10703</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,31 +6232,31 @@
         <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>1239</v>
+        <v>1684</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>212</v>
+        <v>361</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>1684</v>
+        <v>1239</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>245</v>
+        <v>363</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -6253,13 +6265,13 @@
         <v>2923</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>359</v>
+        <v>89</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,34 +6280,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>509</v>
+      </c>
+      <c r="D33" s="7">
+        <v>356155</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>496</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>361361</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="7">
-        <v>509</v>
-      </c>
-      <c r="I33" s="7">
-        <v>356155</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>1005</v>
@@ -6304,18 +6316,18 @@
         <v>717516</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
